--- a/biology/Botanique/Pulicaria/Pulicaria.xlsx
+++ b/biology/Botanique/Pulicaria/Pulicaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulicaria (les pulicaires) est un genre de plantes à fleurs de la famille des Asteraceae. Certaines de ses espèces sont appelées « Herbe Saint-Roch ».
 Le botaniste Joseph Gaertner a défini ce genre en 1791 dans De fructibus et seminibus plantarum (Gaertner 1791, p. 461).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Appareil reproducteur - Capitule possédant deux types de fleurs jaunes :
 ligulées, femelles, sur un rang au bord
@@ -548,7 +562,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pulicaria adenensis Schweinf.
 Pulicaria albida E.Gamal-Eldin
@@ -640,7 +656,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulicaria aromatica, Pulicaria dioscorides, Pulicaria diversifolia, Pulicaria elegans, Pulicaria filaginoides, Pulicaria lanata, Pulicaria stephanocarpa et Pulicaria vieraeoides sont des espèces en danger et sont par conséquent protégées.
 </t>
